--- a/res/veri.xlsx
+++ b/res/veri.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913CF4AF-8120-43F7-AB50-8F0D9AEEA613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veri_model_128_10_3.823_0.115.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veri_model_128_20_2.958_0.255.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veri_model_128_25_2.634_0.324.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veri_model_128_30_2.310_0.399.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veri_model_128_35_1.985_0.476.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veri_model_128_40_1.675_0.555.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veri_model_128_45_1.316_0.659.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veri_model_128_50_0.988_0.757.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veri_model_128_55_0.682_0.853.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +83,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +126,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +153,928 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>veri_model_128_10_3.823_0.115.h5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>veri_model_128_20_2.958_0.255.h5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>veri_model_128_25_2.634_0.324.h5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>veri_model_128_30_2.310_0.399.h5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>veri_model_128_35_1.985_0.476.h5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>veri_model_128_40_1.675_0.555.h5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>veri_model_128_45_1.316_0.659.h5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>veri_model_128_50_0.988_0.757.h5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>veri_model_128_55_0.682_0.853.h5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.2903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25290000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8060-40D4-AA82-3B98326A3CEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="201540976"/>
+        <c:axId val="325743744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="201540976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325743744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="325743744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201540976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8724D9-9E33-40EB-8D20-5353EF884D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1339,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.2903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.2394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.22339999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.23469999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.23139999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.2296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.2361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.24440000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.25290000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/res/veri.xlsx
+++ b/res/veri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913CF4AF-8120-43F7-AB50-8F0D9AEEA613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA7BBA1-EFEB-492B-B4E1-060AF4B415F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>model</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,12 +70,32 @@
     <t>veri_model_128_55_0.682_0.853.h5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>veri_model_128_05_0.413_0.935_add55.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veri_model_128_10_0.212_0.984_add55.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veri_model_128_15_0.092_0.998_add55.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veri_model_128_20_0.037_1.000_add55.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说话人确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +114,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -126,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -136,6 +165,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -210,7 +248,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -233,7 +271,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -268,7 +306,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1040,16 +1078,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>300990</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1340,137 +1378,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.2903</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.2394</v>
+        <v>0.2903</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.22339999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.2394</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.23469999999999999</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.22339999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.23139999999999999</v>
+        <v>0.23469999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.2296</v>
+        <v>0.23139999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.2361</v>
+        <v>0.2296</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.24440000000000001</v>
+        <v>0.2361</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.24440000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>0.25290000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-    </row>
     <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.26419999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.2717</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.27929999999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/res/veri.xlsx
+++ b/res/veri.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA7BBA1-EFEB-492B-B4E1-060AF4B415F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A5E95A-8DC9-4B28-B5A3-963AE70FB057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="vgg(128)" sheetId="1" r:id="rId1"/>
+    <sheet name="vgg(1211)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>model</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,12 +91,22 @@
     <t>说话人确认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>EER</t>
+  </si>
+  <si>
+    <t>veri_model_1211_10_4.417_0.139_512dim.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +133,15 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -155,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,11 +190,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -248,7 +274,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>'vgg(128)'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -271,9 +297,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:f>'vgg(128)'!$A$3:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>veri_model_128_10_3.823_0.115.h5</c:v>
                 </c:pt>
@@ -301,15 +327,27 @@
                 <c:pt idx="8">
                   <c:v>veri_model_128_55_0.682_0.853.h5</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>veri_model_128_05_0.413_0.935_add55.h5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>veri_model_128_10_0.212_0.984_add55.h5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>veri_model_128_15_0.092_0.998_add55.h5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>veri_model_128_20_0.037_1.000_add55.h5</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>'vgg(128)'!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.2903</c:v>
                 </c:pt>
@@ -336,6 +374,18 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.25290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2717</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27929999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,16 +1128,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1381,7 +1431,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1391,10 +1441,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1548,4 +1598,1114 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3AB24B-8739-490E-8270-507D5D48CEB7}">
+  <dimension ref="A1:B269"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.19370000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+    </row>
+    <row r="83" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+    </row>
+    <row r="85" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+    </row>
+    <row r="88" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+    </row>
+    <row r="89" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+    </row>
+    <row r="90" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+    </row>
+    <row r="91" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+    </row>
+    <row r="92" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+    </row>
+    <row r="93" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+    </row>
+    <row r="94" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+    </row>
+    <row r="95" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+    </row>
+    <row r="97" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+    </row>
+    <row r="98" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+    </row>
+    <row r="99" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+    </row>
+    <row r="102" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+    </row>
+    <row r="103" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+    </row>
+    <row r="104" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+    </row>
+    <row r="105" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+    </row>
+    <row r="106" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+    </row>
+    <row r="107" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+    </row>
+    <row r="113" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+    </row>
+    <row r="114" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+    </row>
+    <row r="115" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+    </row>
+    <row r="116" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+    </row>
+    <row r="117" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+    </row>
+    <row r="118" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+    </row>
+    <row r="119" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+    </row>
+    <row r="120" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+    </row>
+    <row r="121" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+    </row>
+    <row r="122" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+    </row>
+    <row r="123" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+    </row>
+    <row r="124" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+    </row>
+    <row r="125" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+    </row>
+    <row r="126" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+    </row>
+    <row r="127" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+    </row>
+    <row r="128" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+    </row>
+    <row r="129" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+    </row>
+    <row r="130" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+    </row>
+    <row r="131" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+    </row>
+    <row r="132" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+    </row>
+    <row r="133" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+    </row>
+    <row r="134" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+    </row>
+    <row r="135" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+    </row>
+    <row r="136" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+    </row>
+    <row r="137" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+    </row>
+    <row r="138" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+    </row>
+    <row r="139" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+    </row>
+    <row r="140" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+    </row>
+    <row r="141" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+    </row>
+    <row r="142" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+    </row>
+    <row r="143" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+    </row>
+    <row r="144" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+    </row>
+    <row r="145" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+    </row>
+    <row r="146" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+    </row>
+    <row r="147" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+    </row>
+    <row r="148" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+    </row>
+    <row r="149" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+    </row>
+    <row r="150" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+    </row>
+    <row r="151" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+    </row>
+    <row r="152" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+    </row>
+    <row r="153" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+    </row>
+    <row r="154" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+    </row>
+    <row r="155" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+    </row>
+    <row r="156" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+    </row>
+    <row r="157" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+    </row>
+    <row r="158" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+    </row>
+    <row r="159" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+    </row>
+    <row r="160" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+    </row>
+    <row r="161" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+    </row>
+    <row r="162" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+    </row>
+    <row r="163" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+    </row>
+    <row r="164" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+    </row>
+    <row r="165" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+    </row>
+    <row r="166" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+    </row>
+    <row r="167" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+    </row>
+    <row r="168" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+    </row>
+    <row r="169" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+    </row>
+    <row r="170" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+    </row>
+    <row r="171" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+    </row>
+    <row r="172" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+    </row>
+    <row r="173" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+    </row>
+    <row r="174" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+    </row>
+    <row r="175" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+    </row>
+    <row r="176" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+    </row>
+    <row r="177" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+    </row>
+    <row r="178" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+    </row>
+    <row r="179" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+    </row>
+    <row r="180" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+    </row>
+    <row r="181" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+    </row>
+    <row r="182" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+    </row>
+    <row r="183" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+    </row>
+    <row r="184" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+    </row>
+    <row r="185" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+    </row>
+    <row r="186" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+    </row>
+    <row r="187" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+    </row>
+    <row r="188" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+    </row>
+    <row r="189" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+    </row>
+    <row r="190" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+    </row>
+    <row r="191" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+    </row>
+    <row r="192" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+    </row>
+    <row r="193" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+    </row>
+    <row r="194" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+    </row>
+    <row r="195" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+    </row>
+    <row r="196" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+    </row>
+    <row r="197" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+    </row>
+    <row r="198" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+    </row>
+    <row r="199" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+    </row>
+    <row r="200" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+    </row>
+    <row r="201" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+    </row>
+    <row r="202" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+    </row>
+    <row r="203" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+    </row>
+    <row r="204" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+    </row>
+    <row r="205" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+    </row>
+    <row r="206" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
+    </row>
+    <row r="207" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+    </row>
+    <row r="208" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+    </row>
+    <row r="209" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+    </row>
+    <row r="210" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+    </row>
+    <row r="211" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+    </row>
+    <row r="212" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+    </row>
+    <row r="213" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+    </row>
+    <row r="214" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+    </row>
+    <row r="215" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+    </row>
+    <row r="216" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+    </row>
+    <row r="217" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+    </row>
+    <row r="218" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+    </row>
+    <row r="219" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+    </row>
+    <row r="220" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+    </row>
+    <row r="221" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
+    </row>
+    <row r="222" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
+    </row>
+    <row r="223" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+    </row>
+    <row r="224" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
+    </row>
+    <row r="225" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
+    </row>
+    <row r="226" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+    </row>
+    <row r="227" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
+    </row>
+    <row r="228" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
+    </row>
+    <row r="229" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
+    </row>
+    <row r="230" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
+    </row>
+    <row r="231" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
+    </row>
+    <row r="232" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
+    </row>
+    <row r="233" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
+    </row>
+    <row r="234" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
+    </row>
+    <row r="235" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
+    </row>
+    <row r="236" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
+    </row>
+    <row r="237" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
+    </row>
+    <row r="238" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
+    </row>
+    <row r="239" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
+    </row>
+    <row r="240" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
+    </row>
+    <row r="241" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+    </row>
+    <row r="242" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
+    </row>
+    <row r="243" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
+    </row>
+    <row r="244" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
+    </row>
+    <row r="245" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+    </row>
+    <row r="246" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
+    </row>
+    <row r="247" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
+    </row>
+    <row r="248" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A248" s="8"/>
+      <c r="B248" s="8"/>
+    </row>
+    <row r="249" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A249" s="8"/>
+      <c r="B249" s="8"/>
+    </row>
+    <row r="250" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A250" s="8"/>
+      <c r="B250" s="8"/>
+    </row>
+    <row r="251" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
+    </row>
+    <row r="252" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A252" s="8"/>
+      <c r="B252" s="8"/>
+    </row>
+    <row r="253" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
+    </row>
+    <row r="254" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A254" s="8"/>
+      <c r="B254" s="8"/>
+    </row>
+    <row r="255" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
+    </row>
+    <row r="256" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A256" s="8"/>
+      <c r="B256" s="8"/>
+    </row>
+    <row r="257" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A257" s="8"/>
+      <c r="B257" s="8"/>
+    </row>
+    <row r="258" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A258" s="8"/>
+      <c r="B258" s="8"/>
+    </row>
+    <row r="259" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A259" s="8"/>
+      <c r="B259" s="8"/>
+    </row>
+    <row r="260" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A260" s="8"/>
+      <c r="B260" s="8"/>
+    </row>
+    <row r="261" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A261" s="8"/>
+      <c r="B261" s="8"/>
+    </row>
+    <row r="262" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A262" s="8"/>
+      <c r="B262" s="8"/>
+    </row>
+    <row r="263" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A263" s="8"/>
+      <c r="B263" s="8"/>
+    </row>
+    <row r="264" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A264" s="8"/>
+      <c r="B264" s="8"/>
+    </row>
+    <row r="265" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
+    </row>
+    <row r="266" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A266" s="8"/>
+      <c r="B266" s="8"/>
+    </row>
+    <row r="267" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A267" s="8"/>
+      <c r="B267" s="8"/>
+    </row>
+    <row r="268" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
+    </row>
+    <row r="269" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A269" s="8"/>
+      <c r="B269" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/res/veri.xlsx
+++ b/res/veri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A5E95A-8DC9-4B28-B5A3-963AE70FB057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0D4ACD-3E4A-4F6D-84E7-D35A1F04FEF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vgg(128)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>model</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -101,12 +101,16 @@
     <t>veri_model_1211_10_4.417_0.139_512dim.h5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>veri_model_1211_15_3.632_0.252_512dim.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +152,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,15 +202,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,6 +210,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,15 +1153,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1430,131 +1454,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="56.109375" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>0.2903</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>0.2394</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>0.22339999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>0.23469999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>0.23139999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>0.2296</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>0.2361</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>0.24440000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>0.25290000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>0.26419999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>0.2717</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>0.27929999999999999</v>
       </c>
     </row>
@@ -1568,19 +1592,19 @@
     </row>
     <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1604,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3AB24B-8739-490E-8270-507D5D48CEB7}">
   <dimension ref="A1:B269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1614,1091 +1638,1095 @@
     <col min="2" max="2" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>0.19370000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.1857</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="5"/>
     </row>
     <row r="80" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="5"/>
     </row>
     <row r="81" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="5"/>
     </row>
     <row r="82" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="5"/>
     </row>
     <row r="84" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="5"/>
     </row>
     <row r="86" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="5"/>
     </row>
     <row r="88" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="5"/>
     </row>
     <row r="90" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="5"/>
     </row>
     <row r="91" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="5"/>
     </row>
     <row r="92" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="5"/>
     </row>
     <row r="93" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="5"/>
     </row>
     <row r="94" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="5"/>
     </row>
     <row r="95" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="5"/>
     </row>
     <row r="96" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="5"/>
     </row>
     <row r="97" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="5"/>
     </row>
     <row r="98" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="5"/>
     </row>
     <row r="102" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="5"/>
     </row>
     <row r="103" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="5"/>
     </row>
     <row r="107" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="5"/>
     </row>
     <row r="109" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="5"/>
     </row>
     <row r="110" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="5"/>
     </row>
     <row r="111" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="5"/>
     </row>
     <row r="112" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="5"/>
     </row>
     <row r="113" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="5"/>
     </row>
     <row r="115" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="5"/>
     </row>
     <row r="116" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="5"/>
     </row>
     <row r="117" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="5"/>
     </row>
     <row r="118" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="5"/>
     </row>
     <row r="119" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="5"/>
     </row>
     <row r="120" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="5"/>
     </row>
     <row r="122" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="5"/>
     </row>
     <row r="123" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="5"/>
     </row>
     <row r="124" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="5"/>
     </row>
     <row r="126" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="5"/>
     </row>
     <row r="127" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="5"/>
     </row>
     <row r="128" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="5"/>
     </row>
     <row r="129" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="5"/>
     </row>
     <row r="130" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="5"/>
     </row>
     <row r="131" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="5"/>
     </row>
     <row r="132" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="5"/>
     </row>
     <row r="133" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="5"/>
     </row>
     <row r="134" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="5"/>
     </row>
     <row r="135" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="5"/>
     </row>
     <row r="136" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="5"/>
     </row>
     <row r="137" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="5"/>
     </row>
     <row r="138" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="5"/>
     </row>
     <row r="139" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="5"/>
     </row>
     <row r="140" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="5"/>
     </row>
     <row r="141" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="5"/>
     </row>
     <row r="142" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="5"/>
     </row>
     <row r="143" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="5"/>
     </row>
     <row r="144" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
+      <c r="A144" s="6"/>
+      <c r="B144" s="5"/>
     </row>
     <row r="145" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
+      <c r="A145" s="6"/>
+      <c r="B145" s="5"/>
     </row>
     <row r="146" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
+      <c r="A146" s="6"/>
+      <c r="B146" s="5"/>
     </row>
     <row r="147" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
+      <c r="A147" s="6"/>
+      <c r="B147" s="5"/>
     </row>
     <row r="148" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="5"/>
     </row>
     <row r="149" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
     </row>
     <row r="150" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
     </row>
     <row r="151" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
     </row>
     <row r="152" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
     </row>
     <row r="153" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
     </row>
     <row r="154" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
     </row>
     <row r="155" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
     </row>
     <row r="156" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
     </row>
     <row r="157" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
     </row>
     <row r="158" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
     </row>
     <row r="159" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
     </row>
     <row r="160" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
     </row>
     <row r="161" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
     </row>
     <row r="162" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
     </row>
     <row r="163" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
     </row>
     <row r="164" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
     </row>
     <row r="165" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
     </row>
     <row r="166" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
     </row>
     <row r="167" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
     </row>
     <row r="168" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
     </row>
     <row r="169" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
     </row>
     <row r="170" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
     </row>
     <row r="171" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
     </row>
     <row r="172" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
     </row>
     <row r="173" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
     </row>
     <row r="174" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
     </row>
     <row r="175" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
     </row>
     <row r="176" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
     </row>
     <row r="177" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
     </row>
     <row r="178" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
     </row>
     <row r="179" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A179" s="8"/>
-      <c r="B179" s="8"/>
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
     </row>
     <row r="180" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8"/>
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
     </row>
     <row r="181" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
     </row>
     <row r="182" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
     </row>
     <row r="183" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
     </row>
     <row r="184" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
     </row>
     <row r="185" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
     </row>
     <row r="186" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
     </row>
     <row r="187" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
     </row>
     <row r="188" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
     </row>
     <row r="189" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A189" s="8"/>
-      <c r="B189" s="8"/>
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
     </row>
     <row r="190" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
     </row>
     <row r="191" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
     </row>
     <row r="192" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
     </row>
     <row r="193" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
     </row>
     <row r="194" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
     </row>
     <row r="195" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A195" s="8"/>
-      <c r="B195" s="8"/>
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
     </row>
     <row r="196" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
     </row>
     <row r="197" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
     </row>
     <row r="198" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
     </row>
     <row r="199" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A199" s="8"/>
-      <c r="B199" s="8"/>
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
     </row>
     <row r="200" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
     </row>
     <row r="201" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
     </row>
     <row r="202" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
     </row>
     <row r="203" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
     </row>
     <row r="204" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
     </row>
     <row r="205" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
     </row>
     <row r="206" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
     </row>
     <row r="207" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
     </row>
     <row r="208" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
     </row>
     <row r="209" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
     </row>
     <row r="210" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
     </row>
     <row r="211" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
     </row>
     <row r="212" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
     </row>
     <row r="213" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
     </row>
     <row r="214" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8"/>
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
     </row>
     <row r="215" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A215" s="8"/>
-      <c r="B215" s="8"/>
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
     </row>
     <row r="216" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
     </row>
     <row r="217" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A217" s="8"/>
-      <c r="B217" s="8"/>
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
     </row>
     <row r="218" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A218" s="8"/>
-      <c r="B218" s="8"/>
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
     </row>
     <row r="219" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
     </row>
     <row r="220" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A220" s="8"/>
-      <c r="B220" s="8"/>
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
     </row>
     <row r="221" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A221" s="8"/>
-      <c r="B221" s="8"/>
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
     </row>
     <row r="222" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
     </row>
     <row r="223" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A223" s="8"/>
-      <c r="B223" s="8"/>
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
     </row>
     <row r="224" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A224" s="8"/>
-      <c r="B224" s="8"/>
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
     </row>
     <row r="225" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A225" s="8"/>
-      <c r="B225" s="8"/>
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
     </row>
     <row r="226" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
     </row>
     <row r="227" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
+      <c r="A227" s="5"/>
+      <c r="B227" s="5"/>
     </row>
     <row r="228" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A228" s="8"/>
-      <c r="B228" s="8"/>
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
     </row>
     <row r="229" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
     </row>
     <row r="230" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8"/>
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
     </row>
     <row r="231" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A231" s="8"/>
-      <c r="B231" s="8"/>
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
     </row>
     <row r="232" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A232" s="8"/>
-      <c r="B232" s="8"/>
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
     </row>
     <row r="233" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A233" s="8"/>
-      <c r="B233" s="8"/>
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
     </row>
     <row r="234" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
+      <c r="A234" s="5"/>
+      <c r="B234" s="5"/>
     </row>
     <row r="235" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A235" s="8"/>
-      <c r="B235" s="8"/>
+      <c r="A235" s="5"/>
+      <c r="B235" s="5"/>
     </row>
     <row r="236" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A236" s="8"/>
-      <c r="B236" s="8"/>
+      <c r="A236" s="5"/>
+      <c r="B236" s="5"/>
     </row>
     <row r="237" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
+      <c r="A237" s="5"/>
+      <c r="B237" s="5"/>
     </row>
     <row r="238" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A238" s="8"/>
-      <c r="B238" s="8"/>
+      <c r="A238" s="5"/>
+      <c r="B238" s="5"/>
     </row>
     <row r="239" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A239" s="8"/>
-      <c r="B239" s="8"/>
+      <c r="A239" s="5"/>
+      <c r="B239" s="5"/>
     </row>
     <row r="240" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A240" s="8"/>
-      <c r="B240" s="8"/>
+      <c r="A240" s="5"/>
+      <c r="B240" s="5"/>
     </row>
     <row r="241" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A241" s="8"/>
-      <c r="B241" s="8"/>
+      <c r="A241" s="5"/>
+      <c r="B241" s="5"/>
     </row>
     <row r="242" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A242" s="8"/>
-      <c r="B242" s="8"/>
+      <c r="A242" s="5"/>
+      <c r="B242" s="5"/>
     </row>
     <row r="243" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A243" s="8"/>
-      <c r="B243" s="8"/>
+      <c r="A243" s="5"/>
+      <c r="B243" s="5"/>
     </row>
     <row r="244" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A244" s="8"/>
-      <c r="B244" s="8"/>
+      <c r="A244" s="5"/>
+      <c r="B244" s="5"/>
     </row>
     <row r="245" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A245" s="8"/>
-      <c r="B245" s="8"/>
+      <c r="A245" s="5"/>
+      <c r="B245" s="5"/>
     </row>
     <row r="246" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
+      <c r="A246" s="5"/>
+      <c r="B246" s="5"/>
     </row>
     <row r="247" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A247" s="8"/>
-      <c r="B247" s="8"/>
+      <c r="A247" s="5"/>
+      <c r="B247" s="5"/>
     </row>
     <row r="248" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A248" s="8"/>
-      <c r="B248" s="8"/>
+      <c r="A248" s="5"/>
+      <c r="B248" s="5"/>
     </row>
     <row r="249" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A249" s="8"/>
-      <c r="B249" s="8"/>
+      <c r="A249" s="5"/>
+      <c r="B249" s="5"/>
     </row>
     <row r="250" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A250" s="8"/>
-      <c r="B250" s="8"/>
+      <c r="A250" s="5"/>
+      <c r="B250" s="5"/>
     </row>
     <row r="251" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A251" s="8"/>
-      <c r="B251" s="8"/>
+      <c r="A251" s="5"/>
+      <c r="B251" s="5"/>
     </row>
     <row r="252" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A252" s="8"/>
-      <c r="B252" s="8"/>
+      <c r="A252" s="5"/>
+      <c r="B252" s="5"/>
     </row>
     <row r="253" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
+      <c r="A253" s="5"/>
+      <c r="B253" s="5"/>
     </row>
     <row r="254" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A254" s="8"/>
-      <c r="B254" s="8"/>
+      <c r="A254" s="5"/>
+      <c r="B254" s="5"/>
     </row>
     <row r="255" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A255" s="8"/>
-      <c r="B255" s="8"/>
+      <c r="A255" s="5"/>
+      <c r="B255" s="5"/>
     </row>
     <row r="256" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A256" s="8"/>
-      <c r="B256" s="8"/>
+      <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
     </row>
     <row r="257" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A257" s="8"/>
-      <c r="B257" s="8"/>
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
     </row>
     <row r="258" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A258" s="8"/>
-      <c r="B258" s="8"/>
+      <c r="A258" s="5"/>
+      <c r="B258" s="5"/>
     </row>
     <row r="259" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A259" s="8"/>
-      <c r="B259" s="8"/>
+      <c r="A259" s="5"/>
+      <c r="B259" s="5"/>
     </row>
     <row r="260" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A260" s="8"/>
-      <c r="B260" s="8"/>
+      <c r="A260" s="5"/>
+      <c r="B260" s="5"/>
     </row>
     <row r="261" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A261" s="8"/>
-      <c r="B261" s="8"/>
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
     </row>
     <row r="262" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A262" s="8"/>
-      <c r="B262" s="8"/>
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
     </row>
     <row r="263" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A263" s="8"/>
-      <c r="B263" s="8"/>
+      <c r="A263" s="5"/>
+      <c r="B263" s="5"/>
     </row>
     <row r="264" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A264" s="8"/>
-      <c r="B264" s="8"/>
+      <c r="A264" s="5"/>
+      <c r="B264" s="5"/>
     </row>
     <row r="265" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A265" s="8"/>
-      <c r="B265" s="8"/>
+      <c r="A265" s="5"/>
+      <c r="B265" s="5"/>
     </row>
     <row r="266" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A266" s="8"/>
-      <c r="B266" s="8"/>
+      <c r="A266" s="5"/>
+      <c r="B266" s="5"/>
     </row>
     <row r="267" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A267" s="8"/>
-      <c r="B267" s="8"/>
+      <c r="A267" s="5"/>
+      <c r="B267" s="5"/>
     </row>
     <row r="268" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A268" s="8"/>
-      <c r="B268" s="8"/>
+      <c r="A268" s="5"/>
+      <c r="B268" s="5"/>
     </row>
     <row r="269" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A269" s="8"/>
-      <c r="B269" s="8"/>
+      <c r="A269" s="5"/>
+      <c r="B269" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/res/veri.xlsx
+++ b/res/veri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0D4ACD-3E4A-4F6D-84E7-D35A1F04FEF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBF6FEC-703B-4369-A294-AB5FF40B62FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,12 +211,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -224,6 +218,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1465,16 +1465,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>0.22339999999999999</v>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
   <dimension ref="A1:B269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1639,16 +1639,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
     </row>

--- a/res/veri.xlsx
+++ b/res/veri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBF6FEC-703B-4369-A294-AB5FF40B62FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB5B18D-35D4-4ECE-9447-5B4BDBFA9399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>model</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>veri_model_1211_15_3.632_0.252_512dim.h5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>veri_model_1211_20_2.900_0.379_512dim.h5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1629,7 +1633,7 @@
   <dimension ref="A1:B269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1669,8 +1673,12 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1789</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
